--- a/assets/file/DATA KENDARAAN - One Matel Indonesia.xlsx
+++ b/assets/file/DATA KENDARAAN - One Matel Indonesia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>KONSUMEN</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>SISA HUTANG</t>
+  </si>
+  <si>
+    <t>LEASING</t>
+  </si>
+  <si>
+    <t>CABANG</t>
   </si>
 </sst>
 </file>
@@ -61,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -87,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -96,16 +102,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -114,20 +150,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -410,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
@@ -424,41 +466,49 @@
     <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/assets/file/DATA KENDARAAN - One Matel Indonesia.xlsx
+++ b/assets/file/DATA KENDARAAN - One Matel Indonesia.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>KONSUMEN</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>OVERDUE</t>
-  </si>
-  <si>
-    <t>BULAN UPDATE</t>
   </si>
   <si>
     <t>SISA HUTANG</t>
@@ -64,9 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,10 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,9 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,52 +453,48 @@
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
